--- a/factureimpayeemois.xlsx
+++ b/factureimpayeemois.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -29,13 +29,28 @@
     <t xml:space="preserve"> Jours de retards </t>
   </si>
   <si>
-    <t>2026-02-18</t>
-  </si>
-  <si>
-    <t>NOURA</t>
+    <t>solde</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>LINA</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ASMA</t>
+  </si>
+  <si>
+    <t>2026-02-19</t>
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>HOUDA</t>
   </si>
 </sst>
 </file>
@@ -80,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -102,22 +117,88 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n" s="0">
         <v>500.0</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>7</v>
+      <c r="E3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>900.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>4000.0</v>
       </c>
     </row>
   </sheetData>

--- a/factureimpayeemois.xlsx
+++ b/factureimpayeemois.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -29,34 +29,16 @@
     <t xml:space="preserve"> Jours de retards </t>
   </si>
   <si>
-    <t>2026-02-16</t>
+    <t xml:space="preserve"> solde</t>
   </si>
   <si>
-    <t>sfze</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2026-02-18</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2026-02-19</t>
+    <t>2026-02-25</t>
   </si>
   <si>
     <t>souhayb</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2026-02-23</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -101,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,90 +105,28 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>200.0</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n" s="0">
+      <c r="F2" t="n" s="0">
         <v>2000.0</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>300.0</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>299.0</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
